--- a/po_analysis_by_asin/B0CTNPZLNH_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNPZLNH_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>120</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>24</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>24</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>24</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>40</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>32</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>32</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>304</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>112</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>288</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>240</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>768</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>32</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>128</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>80</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>64</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>272</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>32</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>32</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>176</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>416</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>464</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>1552</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>192</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>104</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>464</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>528</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>928</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>144</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>336</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>1056</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>1552</v>

--- a/po_analysis_by_asin/B0CTNPZLNH_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNPZLNH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -685,7 +686,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -759,6 +760,523 @@
       </c>
       <c r="B10" t="n">
         <v>1552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-402.8454862954759</v>
+      </c>
+      <c r="D2" t="n">
+        <v>309.6701108884287</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-373.3011455146004</v>
+      </c>
+      <c r="D3" t="n">
+        <v>318.7880274765889</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-364.9210802164425</v>
+      </c>
+      <c r="D4" t="n">
+        <v>338.2469988829304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-343.3013451914923</v>
+      </c>
+      <c r="D5" t="n">
+        <v>361.7607160640896</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-340.9249397511163</v>
+      </c>
+      <c r="D6" t="n">
+        <v>351.6381059345043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-315.9645350577208</v>
+      </c>
+      <c r="D7" t="n">
+        <v>365.6719631920936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-302.2955082937316</v>
+      </c>
+      <c r="D8" t="n">
+        <v>381.7041346888378</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-277.5196071475429</v>
+      </c>
+      <c r="D9" t="n">
+        <v>416.2262534867315</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-266.722339940078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>421.1442713064323</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-253.1133360662537</v>
+      </c>
+      <c r="D11" t="n">
+        <v>426.8394496723719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>111</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-225.1633569260262</v>
+      </c>
+      <c r="D12" t="n">
+        <v>447.4315316069661</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>127</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-194.6476871421604</v>
+      </c>
+      <c r="D13" t="n">
+        <v>489.4412736989978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-163.0013105001692</v>
+      </c>
+      <c r="D14" t="n">
+        <v>514.5478755721612</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>206</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-145.0650063769097</v>
+      </c>
+      <c r="D15" t="n">
+        <v>550.0731243912966</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>238</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-97.71888875694786</v>
+      </c>
+      <c r="D16" t="n">
+        <v>589.5010129753268</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>254</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-95.28266512597784</v>
+      </c>
+      <c r="D17" t="n">
+        <v>610.3442984463859</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>270</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-68.66814149650791</v>
+      </c>
+      <c r="D18" t="n">
+        <v>631.691301758442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>286</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-81.08421964348962</v>
+      </c>
+      <c r="D19" t="n">
+        <v>633.0326173243287</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>302</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-10.88388892190486</v>
+      </c>
+      <c r="D20" t="n">
+        <v>682.972357810742</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>365</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.11694095695514</v>
+      </c>
+      <c r="D21" t="n">
+        <v>730.6559758177079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.60975304281894</v>
+      </c>
+      <c r="D22" t="n">
+        <v>719.1193624909382</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>413</v>
+      </c>
+      <c r="C23" t="n">
+        <v>67.29384192762014</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.1763294990433</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>445</v>
+      </c>
+      <c r="C24" t="n">
+        <v>108.2142966896875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>808.4713473146738</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>461</v>
+      </c>
+      <c r="C25" t="n">
+        <v>103.8298791922681</v>
+      </c>
+      <c r="D25" t="n">
+        <v>821.0205420271506</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>477</v>
+      </c>
+      <c r="C26" t="n">
+        <v>152.0070146274653</v>
+      </c>
+      <c r="D26" t="n">
+        <v>793.9350035251108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>556</v>
+      </c>
+      <c r="C27" t="n">
+        <v>216.0663037283911</v>
+      </c>
+      <c r="D27" t="n">
+        <v>890.832049313333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>572</v>
+      </c>
+      <c r="C28" t="n">
+        <v>231.29657114394</v>
+      </c>
+      <c r="D28" t="n">
+        <v>929.4580129256225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>588</v>
+      </c>
+      <c r="C29" t="n">
+        <v>245.3740649364219</v>
+      </c>
+      <c r="D29" t="n">
+        <v>953.3716649020749</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>604</v>
+      </c>
+      <c r="C30" t="n">
+        <v>236.3578108148911</v>
+      </c>
+      <c r="D30" t="n">
+        <v>933.2377566321136</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>620</v>
+      </c>
+      <c r="C31" t="n">
+        <v>261.0928479747151</v>
+      </c>
+      <c r="D31" t="n">
+        <v>969.0520208923049</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>636</v>
+      </c>
+      <c r="C32" t="n">
+        <v>315.9228063489807</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1002.689714105686</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>652</v>
+      </c>
+      <c r="C33" t="n">
+        <v>302.8523908418792</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1003.301572550641</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>668</v>
+      </c>
+      <c r="C34" t="n">
+        <v>324.3884835032702</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1028.98495638875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>683</v>
+      </c>
+      <c r="C35" t="n">
+        <v>339.9996125115034</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1043.709251624747</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTNPZLNH_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNPZLNH_po_data.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,16 +792,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -810,12 +800,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-402.8454862954759</v>
-      </c>
-      <c r="D2" t="n">
-        <v>309.6701108884287</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -824,12 +808,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-373.3011455146004</v>
-      </c>
-      <c r="D3" t="n">
-        <v>318.7880274765889</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -838,12 +816,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-364.9210802164425</v>
-      </c>
-      <c r="D4" t="n">
-        <v>338.2469988829304</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -852,12 +824,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-343.3013451914923</v>
-      </c>
-      <c r="D5" t="n">
-        <v>361.7607160640896</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -866,12 +832,6 @@
       <c r="B6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
-        <v>-340.9249397511163</v>
-      </c>
-      <c r="D6" t="n">
-        <v>351.6381059345043</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -880,12 +840,6 @@
       <c r="B7" t="n">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
-        <v>-315.9645350577208</v>
-      </c>
-      <c r="D7" t="n">
-        <v>365.6719631920936</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,12 +848,6 @@
       <c r="B8" t="n">
         <v>47</v>
       </c>
-      <c r="C8" t="n">
-        <v>-302.2955082937316</v>
-      </c>
-      <c r="D8" t="n">
-        <v>381.7041346888378</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -908,12 +856,6 @@
       <c r="B9" t="n">
         <v>63</v>
       </c>
-      <c r="C9" t="n">
-        <v>-277.5196071475429</v>
-      </c>
-      <c r="D9" t="n">
-        <v>416.2262534867315</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -922,12 +864,6 @@
       <c r="B10" t="n">
         <v>79</v>
       </c>
-      <c r="C10" t="n">
-        <v>-266.722339940078</v>
-      </c>
-      <c r="D10" t="n">
-        <v>421.1442713064323</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -936,12 +872,6 @@
       <c r="B11" t="n">
         <v>95</v>
       </c>
-      <c r="C11" t="n">
-        <v>-253.1133360662537</v>
-      </c>
-      <c r="D11" t="n">
-        <v>426.8394496723719</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -950,12 +880,6 @@
       <c r="B12" t="n">
         <v>111</v>
       </c>
-      <c r="C12" t="n">
-        <v>-225.1633569260262</v>
-      </c>
-      <c r="D12" t="n">
-        <v>447.4315316069661</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -964,12 +888,6 @@
       <c r="B13" t="n">
         <v>127</v>
       </c>
-      <c r="C13" t="n">
-        <v>-194.6476871421604</v>
-      </c>
-      <c r="D13" t="n">
-        <v>489.4412736989978</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -978,12 +896,6 @@
       <c r="B14" t="n">
         <v>175</v>
       </c>
-      <c r="C14" t="n">
-        <v>-163.0013105001692</v>
-      </c>
-      <c r="D14" t="n">
-        <v>514.5478755721612</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -992,12 +904,6 @@
       <c r="B15" t="n">
         <v>206</v>
       </c>
-      <c r="C15" t="n">
-        <v>-145.0650063769097</v>
-      </c>
-      <c r="D15" t="n">
-        <v>550.0731243912966</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1006,12 +912,6 @@
       <c r="B16" t="n">
         <v>238</v>
       </c>
-      <c r="C16" t="n">
-        <v>-97.71888875694786</v>
-      </c>
-      <c r="D16" t="n">
-        <v>589.5010129753268</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1020,12 +920,6 @@
       <c r="B17" t="n">
         <v>254</v>
       </c>
-      <c r="C17" t="n">
-        <v>-95.28266512597784</v>
-      </c>
-      <c r="D17" t="n">
-        <v>610.3442984463859</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1034,12 +928,6 @@
       <c r="B18" t="n">
         <v>270</v>
       </c>
-      <c r="C18" t="n">
-        <v>-68.66814149650791</v>
-      </c>
-      <c r="D18" t="n">
-        <v>631.691301758442</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1048,12 +936,6 @@
       <c r="B19" t="n">
         <v>286</v>
       </c>
-      <c r="C19" t="n">
-        <v>-81.08421964348962</v>
-      </c>
-      <c r="D19" t="n">
-        <v>633.0326173243287</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1062,12 +944,6 @@
       <c r="B20" t="n">
         <v>302</v>
       </c>
-      <c r="C20" t="n">
-        <v>-10.88388892190486</v>
-      </c>
-      <c r="D20" t="n">
-        <v>682.972357810742</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1076,12 +952,6 @@
       <c r="B21" t="n">
         <v>365</v>
       </c>
-      <c r="C21" t="n">
-        <v>14.11694095695514</v>
-      </c>
-      <c r="D21" t="n">
-        <v>730.6559758177079</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1090,12 +960,6 @@
       <c r="B22" t="n">
         <v>381</v>
       </c>
-      <c r="C22" t="n">
-        <v>34.60975304281894</v>
-      </c>
-      <c r="D22" t="n">
-        <v>719.1193624909382</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1104,12 +968,6 @@
       <c r="B23" t="n">
         <v>413</v>
       </c>
-      <c r="C23" t="n">
-        <v>67.29384192762014</v>
-      </c>
-      <c r="D23" t="n">
-        <v>749.1763294990433</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1118,12 +976,6 @@
       <c r="B24" t="n">
         <v>445</v>
       </c>
-      <c r="C24" t="n">
-        <v>108.2142966896875</v>
-      </c>
-      <c r="D24" t="n">
-        <v>808.4713473146738</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1132,12 +984,6 @@
       <c r="B25" t="n">
         <v>461</v>
       </c>
-      <c r="C25" t="n">
-        <v>103.8298791922681</v>
-      </c>
-      <c r="D25" t="n">
-        <v>821.0205420271506</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1146,12 +992,6 @@
       <c r="B26" t="n">
         <v>477</v>
       </c>
-      <c r="C26" t="n">
-        <v>152.0070146274653</v>
-      </c>
-      <c r="D26" t="n">
-        <v>793.9350035251108</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1160,12 +1000,6 @@
       <c r="B27" t="n">
         <v>556</v>
       </c>
-      <c r="C27" t="n">
-        <v>216.0663037283911</v>
-      </c>
-      <c r="D27" t="n">
-        <v>890.832049313333</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1174,12 +1008,6 @@
       <c r="B28" t="n">
         <v>572</v>
       </c>
-      <c r="C28" t="n">
-        <v>231.29657114394</v>
-      </c>
-      <c r="D28" t="n">
-        <v>929.4580129256225</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1188,12 +1016,6 @@
       <c r="B29" t="n">
         <v>588</v>
       </c>
-      <c r="C29" t="n">
-        <v>245.3740649364219</v>
-      </c>
-      <c r="D29" t="n">
-        <v>953.3716649020749</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1202,12 +1024,6 @@
       <c r="B30" t="n">
         <v>604</v>
       </c>
-      <c r="C30" t="n">
-        <v>236.3578108148911</v>
-      </c>
-      <c r="D30" t="n">
-        <v>933.2377566321136</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1216,12 +1032,6 @@
       <c r="B31" t="n">
         <v>620</v>
       </c>
-      <c r="C31" t="n">
-        <v>261.0928479747151</v>
-      </c>
-      <c r="D31" t="n">
-        <v>969.0520208923049</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1230,12 +1040,6 @@
       <c r="B32" t="n">
         <v>636</v>
       </c>
-      <c r="C32" t="n">
-        <v>315.9228063489807</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1002.689714105686</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1244,12 +1048,6 @@
       <c r="B33" t="n">
         <v>652</v>
       </c>
-      <c r="C33" t="n">
-        <v>302.8523908418792</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1003.301572550641</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1258,12 +1056,6 @@
       <c r="B34" t="n">
         <v>668</v>
       </c>
-      <c r="C34" t="n">
-        <v>324.3884835032702</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1028.98495638875</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1271,12 +1063,6 @@
       </c>
       <c r="B35" t="n">
         <v>683</v>
-      </c>
-      <c r="C35" t="n">
-        <v>339.9996125115034</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1043.709251624747</v>
       </c>
     </row>
   </sheetData>
